--- a/NEW HR/DE ASIS, JANETTE.xlsx
+++ b/NEW HR/DE ASIS, JANETTE.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>7/31 - 8/1/2023</t>
+  </si>
+  <si>
+    <t>10/31 - 11/3/2023</t>
+  </si>
+  <si>
+    <t>11/16,17/2023</t>
+  </si>
+  <si>
+    <t>12/15,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -3284,9 +3293,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3456,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>61.25</v>
+        <v>62.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3457,7 +3466,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>86.25</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4800,7 +4809,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4820,7 +4829,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4840,7 +4849,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4860,7 +4869,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4880,7 +4889,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4900,7 +4909,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4920,7 +4929,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4940,7 +4949,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4960,7 +4969,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4980,16 +4989,18 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4997,7 +5008,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5013,7 +5026,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5029,7 +5044,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5045,7 +5062,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5061,7 +5080,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5828,9 +5849,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A12" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <pane ySplit="4050" topLeftCell="A11" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5994,7 +6015,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.895</v>
+        <v>14.895</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6004,7 +6025,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.683</v>
+        <v>34.683</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6282,8 +6303,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -6292,14 +6317,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>2</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -6308,16 +6341,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>2</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39">
+        <v>4</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
@@ -6327,11 +6368,15 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6340,10 +6385,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>1</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="49">
+        <v>45254</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
